--- a/console/Elastic-Compute/Virtual-Machine/components/compute/modifyDiskAttribute.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/components/compute/modifyDiskAttribute.xlsx
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Release on machine termination</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pacakge_in_month_cannot_modify</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,7 +90,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cannot modify cloud disk under monthly package</t>
+    <t>The monthly package of cloud disk cannot be changed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release with VM termination</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +129,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -150,9 +155,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -460,7 +468,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -500,19 +508,19 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
